--- a/biology/Botanique/Ernst_Dieffenbach/Ernst_Dieffenbach.xlsx
+++ b/biology/Botanique/Ernst_Dieffenbach/Ernst_Dieffenbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Karl Ernst Dieffenbach (Gießen, 27 janvier 1811, mort le 1er octobre 1855 (à 44 ans)) est un explorateur, médecin, géologue et naturaliste hessois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de médecine (1828-1833) mais, engagé politiquement, doit s'exiler en Suisse pour les achever (1836). Emprisonné à Zurich pour duel (1836), il vit ensuite en France puis en Angleterre (1837) où il rencontre Charles Darwin, Charles Lyell et Richard Owen et se passionne pour les débats naturalistes. Il décide alors de partir en Nouvelle-Zélande comme employé de la New Zealand Company.
 Parti en 1839 avec les Wakefield, père et fils, il fait de nombreuses expéditions dans le centre de l'île Nord, est le premier européen à escalader le mont Taranaki/Egmont et séjourne un mois dans les îles Chatham.
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>New Zealand and its Native Population (1841)
 Travels in New Zealand, 2 vol, (1843)
@@ -583,24 +599,98 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Zoologie
-La Râle de Dieffenbach (Gallirallus dieffenbachii) a été nommée en son honneur.
-Botanique
-Genre
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Râle de Dieffenbach (Gallirallus dieffenbachii) a été nommée en son honneur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ernst_Dieffenbach</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ernst_Dieffenbach</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Genre
 Dieffenbachia
 Espèces
-(Apiaceae) Aciphylla dieffenbachii Kirk[1]
-(Apiaceae) Angelica dieffenbachii Benth. &amp; Hook.f.[2]
-(Apiaceae) Coxella dieffenbachii Cheeseman &amp; Hemsl.[3]
-(Apiaceae) Gingidium dieffenbachii F.Muell.[4]
-(Apiaceae) Ligusticum dieffenbachii Hook.f.[5]
-(Podocarpaceae) Podocarpus dieffenbachii Hook.[6]
-(Plantaginaceae) Hebe dieffenbachii Cockayne &amp; Allan (en)[7]
-(Plantaginaceae) Veronica dieffenbachii (sv) Benth.[8]
-(Thymelaeaceae) Drapetes dieffenbachii Hook.[9]
-(Thymelaeaceae) Kelleria dieffenbachii (Hook.) Endl.[10]
-Littérature
-Jules Verne le mentionne dans ses romans Les Enfants du capitaine Grant (partie 3, chapitre VIII) et L'Île mystérieuse (partie 2, chapitre X)[11].</t>
+(Apiaceae) Aciphylla dieffenbachii Kirk
+(Apiaceae) Angelica dieffenbachii Benth. &amp; Hook.f.
+(Apiaceae) Coxella dieffenbachii Cheeseman &amp; Hemsl.
+(Apiaceae) Gingidium dieffenbachii F.Muell.
+(Apiaceae) Ligusticum dieffenbachii Hook.f.
+(Podocarpaceae) Podocarpus dieffenbachii Hook.
+(Plantaginaceae) Hebe dieffenbachii Cockayne &amp; Allan (en)
+(Plantaginaceae) Veronica dieffenbachii (sv) Benth.
+(Thymelaeaceae) Drapetes dieffenbachii Hook.
+(Thymelaeaceae) Kelleria dieffenbachii (Hook.) Endl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ernst_Dieffenbach</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ernst_Dieffenbach</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jules Verne le mentionne dans ses romans Les Enfants du capitaine Grant (partie 3, chapitre VIII) et L'Île mystérieuse (partie 2, chapitre X).</t>
         </is>
       </c>
     </row>
